--- a/output/SecventialSortingResults.xlsx
+++ b/output/SecventialSortingResults.xlsx
@@ -92,7 +92,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>2.8771950000000004</v>
+        <v>3.261756</v>
       </c>
     </row>
     <row r="3">
@@ -100,7 +100,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0">
-        <v>1.067235</v>
+        <v>1.242801</v>
       </c>
     </row>
     <row r="4">
@@ -108,7 +108,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0">
-        <v>0.015467</v>
+        <v>0.014614</v>
       </c>
     </row>
   </sheetData>

--- a/output/SecventialSortingResults.xlsx
+++ b/output/SecventialSortingResults.xlsx
@@ -92,7 +92,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>3.261756</v>
+        <v>2.9585820000000003</v>
       </c>
     </row>
     <row r="3">
@@ -100,7 +100,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0">
-        <v>1.242801</v>
+        <v>1.08422</v>
       </c>
     </row>
     <row r="4">
@@ -108,7 +108,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0">
-        <v>0.014614</v>
+        <v>0.015497</v>
       </c>
     </row>
   </sheetData>

--- a/output/SecventialSortingResults.xlsx
+++ b/output/SecventialSortingResults.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="132" yWindow="588" windowWidth="22716" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Execution Times" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -32,8 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -58,60 +59,560 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time (Seconds)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Execution Times'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>QuickSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.184E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.024E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6359999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="195687168"/>
+        <c:axId val="195688704"/>
+        <c:axId val="173255296"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="195687168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="195688704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="195688704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="195687168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="173255296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="195688704"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName=""/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0">
-        <v>2.9585820000000003</v>
+      <c r="B2">
+        <v>1.184E-4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0">
-        <v>1.08422</v>
+      <c r="B3">
+        <v>1.024E-4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0">
-        <v>0.015497</v>
+      <c r="B4">
+        <v>1.6359999999999999E-4</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/SecventialSortingResults.xlsx
+++ b/output/SecventialSortingResults.xlsx
@@ -92,7 +92,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>33.7178418</v>
+        <v>29.9872425</v>
       </c>
     </row>
     <row r="3">
@@ -100,7 +100,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0">
-        <v>12.3117326</v>
+        <v>11.1821577</v>
       </c>
     </row>
     <row r="4">
@@ -108,7 +108,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0">
-        <v>0.016504</v>
+        <v>0.0145067</v>
       </c>
     </row>
   </sheetData>
